--- a/translations/Chinese.xlsx
+++ b/translations/Chinese.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -896,9 +896,6 @@
     <t>远程空调</t>
   </si>
   <si>
-    <t>远程为____  - 现在免费</t>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -1247,6 +1244,9 @@
   </si>
   <si>
     <t>我的电视不在这里 :(</t>
+  </si>
+  <si>
+    <t>远程为 ____  - 现在免费</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1836,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1848,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1896,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1908,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1920,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1932,7 +1932,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1944,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -1956,7 +1956,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -1968,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1992,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2004,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2016,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -2028,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -2040,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -2052,7 +2052,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -2064,7 +2064,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -2076,7 +2076,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2088,7 +2088,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -2100,7 +2100,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2112,7 +2112,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
         <v>61</v>
@@ -2124,7 +2124,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -2136,7 +2136,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -2148,7 +2148,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -2160,7 +2160,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F35" t="s">
         <v>69</v>
@@ -2172,7 +2172,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F36" t="s">
         <v>71</v>
@@ -2184,7 +2184,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
@@ -2196,7 +2196,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -2208,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F39" t="s">
         <v>77</v>
@@ -2232,7 +2232,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -2244,7 +2244,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2268,7 +2268,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2280,7 +2280,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>88</v>
@@ -2292,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2304,7 +2304,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -2316,7 +2316,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
@@ -2328,7 +2328,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -2340,7 +2340,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
@@ -2352,7 +2352,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
         <v>100</v>
@@ -2364,7 +2364,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -2376,7 +2376,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F53" t="s">
         <v>104</v>
@@ -2388,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -2402,7 +2402,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F55" t="s">
         <v>108</v>
@@ -2414,7 +2414,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F56" t="s">
         <v>110</v>
@@ -2426,7 +2426,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
@@ -2438,7 +2438,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
         <v>114</v>
@@ -2450,7 +2450,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
         <v>116</v>
@@ -2462,7 +2462,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
         <v>118</v>
@@ -2474,7 +2474,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F61" t="s">
         <v>120</v>
@@ -2486,7 +2486,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F62" t="s">
         <v>122</v>
@@ -2498,7 +2498,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
         <v>123</v>
@@ -2510,7 +2510,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
         <v>125</v>
@@ -2522,7 +2522,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F65" t="s">
         <v>127</v>
@@ -2534,7 +2534,7 @@
         <v>266</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F66" t="s">
         <v>128</v>
@@ -2546,7 +2546,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
         <v>130</v>
@@ -2558,7 +2558,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2570,7 +2570,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -2582,7 +2582,7 @@
         <v>135</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F70" t="s">
         <v>136</v>
@@ -2594,7 +2594,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -2606,7 +2606,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F72" t="s">
         <v>140</v>
@@ -2618,7 +2618,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F73" t="s">
         <v>142</v>
@@ -2630,7 +2630,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" t="s">
         <v>144</v>
@@ -2642,7 +2642,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
@@ -2654,7 +2654,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
@@ -2666,7 +2666,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
         <v>150</v>
@@ -2690,7 +2690,7 @@
         <v>152</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" t="s">
         <v>153</v>
@@ -2702,7 +2702,7 @@
         <v>154</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -2714,7 +2714,7 @@
         <v>156</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -2726,7 +2726,7 @@
         <v>158</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F82" t="s">
         <v>159</v>
@@ -2738,7 +2738,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2750,7 +2750,7 @@
         <v>162</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
         <v>163</v>
@@ -2762,7 +2762,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
         <v>165</v>
@@ -2774,7 +2774,7 @@
         <v>166</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
         <v>167</v>
@@ -2786,7 +2786,7 @@
         <v>168</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F87" t="s">
         <v>169</v>
@@ -2798,7 +2798,7 @@
         <v>170</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -2810,7 +2810,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -2822,7 +2822,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F90" t="s">
         <v>175</v>
@@ -2834,7 +2834,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F91" t="s">
         <v>177</v>
@@ -2846,7 +2846,7 @@
         <v>178</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F92" t="s">
         <v>179</v>
@@ -2858,7 +2858,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F93" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F94" t="s">
         <v>183</v>
@@ -2882,7 +2882,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95" t="s">
         <v>185</v>
@@ -2894,7 +2894,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F96" t="s">
         <v>187</v>
@@ -2906,7 +2906,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F97" t="s">
         <v>189</v>
@@ -2918,7 +2918,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s">
         <v>191</v>
@@ -2930,7 +2930,7 @@
         <v>152</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -2942,7 +2942,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
         <v>194</v>
@@ -2954,7 +2954,7 @@
         <v>195</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" t="s">
         <v>196</v>
@@ -2966,7 +2966,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F102" t="s">
         <v>198</v>
@@ -2978,7 +2978,7 @@
         <v>199</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F103" t="s">
         <v>200</v>
@@ -2990,7 +2990,7 @@
         <v>201</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F104" t="s">
         <v>202</v>
@@ -3002,7 +3002,7 @@
         <v>203</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F105" t="s">
         <v>204</v>
@@ -3014,7 +3014,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F106" t="s">
         <v>206</v>
@@ -3026,7 +3026,7 @@
         <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F107" t="s">
         <v>208</v>
@@ -3038,7 +3038,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s">
         <v>210</v>
@@ -3050,7 +3050,7 @@
         <v>211</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F109" t="s">
         <v>212</v>
@@ -3062,7 +3062,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F110" t="s">
         <v>214</v>
@@ -3074,7 +3074,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F111" t="s">
         <v>216</v>
@@ -3086,7 +3086,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F112" t="s">
         <v>218</v>
@@ -3098,7 +3098,7 @@
         <v>219</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F113" t="s">
         <v>220</v>
@@ -3110,7 +3110,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F114" t="s">
         <v>222</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F115" t="s">
         <v>224</v>
@@ -3134,7 +3134,7 @@
         <v>225</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F116" t="s">
         <v>226</v>
@@ -3146,7 +3146,7 @@
         <v>227</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F117" t="s">
         <v>228</v>
@@ -3158,7 +3158,7 @@
         <v>229</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F118" t="s">
         <v>230</v>
@@ -3170,7 +3170,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F119" t="s">
         <v>231</v>
@@ -3230,7 +3230,7 @@
         <v>239</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s">
         <v>240</v>
@@ -3376,7 +3376,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/translations/Chinese.xlsx
+++ b/translations/Chinese.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\Translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -854,9 +854,6 @@
     <t>出错了，请尝试重新启动</t>
   </si>
   <si>
-    <t>重新开始</t>
-  </si>
-  <si>
     <t>出口</t>
   </si>
   <si>
@@ -1247,6 +1244,9 @@
   </si>
   <si>
     <t>远程为 ____  - 现在免费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新开始 </t>
   </si>
 </sst>
 </file>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1836,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1848,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1896,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1908,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1920,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1932,7 +1932,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1944,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -1956,7 +1956,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -1968,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1992,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2004,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2016,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -2028,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -2040,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -2052,7 +2052,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -2064,7 +2064,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -2076,7 +2076,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2088,7 +2088,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -2100,7 +2100,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2112,7 +2112,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
         <v>61</v>
@@ -2124,7 +2124,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -2136,7 +2136,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -2148,7 +2148,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -2160,7 +2160,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
         <v>69</v>
@@ -2172,7 +2172,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
         <v>71</v>
@@ -2184,7 +2184,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
@@ -2196,7 +2196,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -2208,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F39" t="s">
         <v>77</v>
@@ -2220,7 +2220,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
         <v>79</v>
@@ -2232,7 +2232,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -2244,7 +2244,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2256,7 +2256,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s">
         <v>84</v>
@@ -2268,7 +2268,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2280,7 +2280,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F45" t="s">
         <v>88</v>
@@ -2292,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2304,7 +2304,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -2316,7 +2316,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
@@ -2328,7 +2328,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -2340,7 +2340,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
@@ -2352,7 +2352,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s">
         <v>100</v>
@@ -2364,7 +2364,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -2376,7 +2376,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F53" t="s">
         <v>104</v>
@@ -2388,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -2402,7 +2402,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F55" t="s">
         <v>108</v>
@@ -2414,7 +2414,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F56" t="s">
         <v>110</v>
@@ -2426,7 +2426,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
@@ -2438,7 +2438,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F58" t="s">
         <v>114</v>
@@ -2450,7 +2450,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F59" t="s">
         <v>116</v>
@@ -2462,7 +2462,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F60" t="s">
         <v>118</v>
@@ -2474,7 +2474,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
         <v>120</v>
@@ -2486,7 +2486,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F62" t="s">
         <v>122</v>
@@ -2498,7 +2498,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F63" t="s">
         <v>123</v>
@@ -2510,7 +2510,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F64" t="s">
         <v>125</v>
@@ -2522,7 +2522,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F65" t="s">
         <v>127</v>
@@ -2534,7 +2534,7 @@
         <v>266</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F66" t="s">
         <v>128</v>
@@ -2546,7 +2546,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F67" t="s">
         <v>130</v>
@@ -2558,7 +2558,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2570,7 +2570,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -2582,7 +2582,7 @@
         <v>135</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F70" t="s">
         <v>136</v>
@@ -2594,7 +2594,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -2606,7 +2606,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
         <v>140</v>
@@ -2618,7 +2618,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
         <v>142</v>
@@ -2630,7 +2630,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F74" t="s">
         <v>144</v>
@@ -2642,7 +2642,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
@@ -2654,7 +2654,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
@@ -2666,7 +2666,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F77" t="s">
         <v>150</v>
@@ -2678,7 +2678,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
         <v>151</v>
@@ -2690,7 +2690,7 @@
         <v>152</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F79" t="s">
         <v>153</v>
@@ -2702,7 +2702,7 @@
         <v>154</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -2714,7 +2714,7 @@
         <v>156</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -2726,7 +2726,7 @@
         <v>158</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F82" t="s">
         <v>159</v>
@@ -2738,7 +2738,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2750,7 +2750,7 @@
         <v>162</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
         <v>163</v>
@@ -2762,7 +2762,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F85" t="s">
         <v>165</v>
@@ -2774,7 +2774,7 @@
         <v>166</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F86" t="s">
         <v>167</v>
@@ -2786,7 +2786,7 @@
         <v>168</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F87" t="s">
         <v>169</v>
@@ -2798,7 +2798,7 @@
         <v>170</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -2810,7 +2810,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -2822,7 +2822,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F90" t="s">
         <v>175</v>
@@ -2834,7 +2834,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F91" t="s">
         <v>177</v>
@@ -2846,7 +2846,7 @@
         <v>178</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F92" t="s">
         <v>179</v>
@@ -2858,7 +2858,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F93" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F94" t="s">
         <v>183</v>
@@ -2882,7 +2882,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" t="s">
         <v>185</v>
@@ -2894,7 +2894,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" t="s">
         <v>187</v>
@@ -2906,7 +2906,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F97" t="s">
         <v>189</v>
@@ -2918,7 +2918,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F98" t="s">
         <v>191</v>
@@ -2930,7 +2930,7 @@
         <v>152</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -2942,7 +2942,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F100" t="s">
         <v>194</v>
@@ -2954,7 +2954,7 @@
         <v>195</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F101" t="s">
         <v>196</v>
@@ -2966,7 +2966,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F102" t="s">
         <v>198</v>
@@ -2978,7 +2978,7 @@
         <v>199</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
         <v>200</v>
@@ -2990,7 +2990,7 @@
         <v>201</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F104" t="s">
         <v>202</v>
@@ -3002,7 +3002,7 @@
         <v>203</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F105" t="s">
         <v>204</v>
@@ -3014,7 +3014,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F106" t="s">
         <v>206</v>
@@ -3026,7 +3026,7 @@
         <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
         <v>208</v>
@@ -3038,7 +3038,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F108" t="s">
         <v>210</v>
@@ -3050,7 +3050,7 @@
         <v>211</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F109" t="s">
         <v>212</v>
@@ -3062,7 +3062,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F110" t="s">
         <v>214</v>
@@ -3074,7 +3074,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" t="s">
         <v>216</v>
@@ -3086,7 +3086,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F112" t="s">
         <v>218</v>
@@ -3098,7 +3098,7 @@
         <v>219</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F113" t="s">
         <v>220</v>
@@ -3110,7 +3110,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" t="s">
         <v>222</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F115" t="s">
         <v>224</v>
@@ -3134,7 +3134,7 @@
         <v>225</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F116" t="s">
         <v>226</v>
@@ -3146,7 +3146,7 @@
         <v>227</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F117" t="s">
         <v>228</v>
@@ -3158,7 +3158,7 @@
         <v>229</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F118" t="s">
         <v>230</v>
@@ -3170,7 +3170,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F119" t="s">
         <v>231</v>
@@ -3194,7 +3194,7 @@
         <v>234</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>272</v>
+        <v>397</v>
       </c>
       <c r="F121" t="s">
         <v>235</v>
@@ -3206,7 +3206,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F122" t="s">
         <v>236</v>
@@ -3218,7 +3218,7 @@
         <v>237</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F123" t="s">
         <v>238</v>
@@ -3230,7 +3230,7 @@
         <v>239</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F124" t="s">
         <v>240</v>
@@ -3242,7 +3242,7 @@
         <v>241</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F125" t="s">
         <v>242</v>
@@ -3254,7 +3254,7 @@
         <v>243</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F126" t="s">
         <v>244</v>
@@ -3266,7 +3266,7 @@
         <v>245</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F127" t="s">
         <v>246</v>
@@ -3278,7 +3278,7 @@
         <v>247</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F128" t="s">
         <v>248</v>
@@ -3290,7 +3290,7 @@
         <v>249</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F129" t="s">
         <v>250</v>
@@ -3302,7 +3302,7 @@
         <v>251</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F130" t="s">
         <v>252</v>
@@ -3314,7 +3314,7 @@
         <v>253</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F131" t="s">
         <v>254</v>
@@ -3326,7 +3326,7 @@
         <v>255</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F132" t="s">
         <v>256</v>
@@ -3338,7 +3338,7 @@
         <v>257</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F133" t="s">
         <v>258</v>
@@ -3350,7 +3350,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F134" t="s">
         <v>260</v>
@@ -3362,7 +3362,7 @@
         <v>261</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F135" t="s">
         <v>262</v>
@@ -3376,7 +3376,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>
